--- a/xlsx_files/Creative room.xlsx
+++ b/xlsx_files/Creative room.xlsx
@@ -545,31 +545,31 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
+          <t>GROUP 1 PREPARATORY: SCIENTIFIC INQUIRY: BEYOND THE VISIBLE
+09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
           <t>GROUP 2 PREPARATORY: ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
 09:00-10:30</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>CM SOPHOMORE: ECOLOGY
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>GROUP 1 PREPARATORY: SCIENTIFIC INQUIRY: BEYOND THE VISIBLE
 09:00-10:30</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>GROUP 1 PREPARATORY: ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>GROUP 2 PREPARATORY: PRECALCULUS
 09:00-10:30</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>CM SOPHOMORE: VISUAL DESIGN
-09:00-10:30</t>
-        </is>
-      </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>GROUP 2 PREPARATORY: PRECALCULUS
+          <t>GROUP 1 PREPARATORY: SCIENTIFIC INQUIRY: BEYOND THE VISIBLE
 09:00-10:30</t>
         </is>
       </c>
@@ -656,31 +656,31 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>GROUP 1 PREPARATORY: PRECALCULUS
+          <t>GROUP 2 PREPARATORY: SCIENTIFIC INQUIRY: BEYOND THE VISIBLE
 11:00-12:30</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>CM SOPHOMORE: MEDIA PRODUCTION RADIO
+          <t>GROUP 2 PREPARATORY: ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
 11:00-12:30</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>GROUP 1 PREPARATORY: ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
+          <t>GROUP 2 PREPARATORY: SCIENTIFIC INQUIRY: BEYOND THE VISIBLE
 11:00-12:30</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>CM JUNIOR: DIGITAL AND SOCIAL MEDIA
+          <t>CS FRESHMEN: RUSSIAN LANGUAGE (INTERMEDIATE LEVEL)
 11:00-12:30</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>CS FRESHMEN: RUSSIAN LANGUAGE (BEGINNER LEVEL)
+          <t>GROUP 2 PREPARATORY: SCIENTIFIC INQUIRY: BEYOND THE VISIBLE
 11:00-12:30</t>
         </is>
       </c>
@@ -795,31 +795,31 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>GROUP 2 PREPARATORY: PRECALCULUS
+          <t>CS FRESHMEN: MATHEMATICS 2: CALCULUS II
 14:00-15:30</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>CM SOPHOMORE: HISTORY 2: MAKING CENTRAL ASIA
-14:00-15:30</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>GROUP 2 PREPARATORY: ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
 14:00-15:30</t>
         </is>
       </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>CS FRESHMEN: MATHEMATICS 2: CALCULUS II
+14:00-15:30</t>
+        </is>
+      </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>CM JUNIOR: DIGITAL AND SOCIAL MEDIA
+          <t>CS FRESHMEN: SOCIOLOGY
 14:00-15:30</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>CM JUNIOR: DOCUMENTARY FILM AND SCRIPTWRITING
+          <t>CS FRESHMEN: MATHEMATICS 2: CALCULUS II
 14:00-15:30</t>
         </is>
       </c>
@@ -906,31 +906,31 @@
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>CS FRESHMEN: RUSSIAN LANGUAGE (BEGINNER LEVEL)
+          <t>CS FRESHMEN: PROGRAMMING II
 16:00-17:30</t>
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>CM SOPHOMORE: VISUAL DESIGN
+          <t>GROUP 1 PREPARATORY: PRECALCULUS
 16:00-17:30</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>GROUP 2 PREPARATORY: ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
+          <t>CS FRESHMEN: PROGRAMMING II
 16:00-17:30</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>CM JUNIOR: DOCUMENTARY FILM AND SCRIPTWRITING
+          <t>CS SOPHOMORE: DATABASE MANAGEMENT SYSTEMS
 16:00-17:30</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>CM JUNIOR: ENTREPRENURSHIP AND INNOVATION
+          <t>CS FRESHMEN: PROGRAMMING II
 16:00-17:30</t>
         </is>
       </c>
